--- a/my_package/traj_excel_10/tested_robot_traj_5_.xlsx
+++ b/my_package/traj_excel_10/tested_robot_traj_5_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.1619081784284657</v>
+        <v>0.1619081784284657</v>
       </c>
       <c r="C1" t="n">
-        <v>1.376275516565805</v>
+        <v>0.1945208102290912</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672860002190442</v>
+        <v>-0.672860002190442</v>
       </c>
       <c r="E1" t="n">
-        <v>0.8673805046080227</v>
+        <v>0.7034158221868738</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796280873402</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="G1" t="n">
         <v>-1.408888145739562</v>
@@ -449,19 +449,19 @@
         <v>0.2212251060624558</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2074942785077096</v>
+        <v>0.2074942785077096</v>
       </c>
       <c r="C2" t="n">
-        <v>1.37735797105997</v>
+        <v>0.1934383557349265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6758762528771421</v>
+        <v>-0.6758762528771421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8693143401741139</v>
+        <v>0.7014819866207826</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796286790826</v>
+        <v>1.570796286790826</v>
       </c>
       <c r="G2" t="n">
         <v>-1.363302046435018</v>
@@ -472,19 +472,19 @@
         <v>0.4424502121249115</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4117502296915038</v>
+        <v>0.4117502296915038</v>
       </c>
       <c r="C3" t="n">
-        <v>1.382208084843216</v>
+        <v>0.1885882419516801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6893910556777709</v>
+        <v>-0.6893910556777709</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87797920561113</v>
+        <v>0.6928171211837666</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796313304808</v>
+        <v>1.570796313304808</v>
       </c>
       <c r="G3" t="n">
         <v>-1.159046098722391</v>
@@ -495,19 +495,19 @@
         <v>0.6636753181873674</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6991189600253006</v>
+        <v>0.6991189600253006</v>
       </c>
       <c r="C4" t="n">
-        <v>1.389031734444553</v>
+        <v>0.1817645923503434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7084051000618862</v>
+        <v>-0.7084051000618862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8901698485995828</v>
+        <v>0.6806264781953137</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796350607462</v>
+        <v>1.570796350607462</v>
       </c>
       <c r="G4" t="n">
         <v>-0.8716773732721977</v>
@@ -518,19 +518,19 @@
         <v>0.8849004242498231</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9033749112090953</v>
+        <v>0.9033749112090953</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393881848227799</v>
+        <v>0.176914478567097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7219199028625151</v>
+        <v>-0.7219199028625151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8988347140365989</v>
+        <v>0.6719616127582977</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796377121443</v>
+        <v>1.570796377121443</v>
       </c>
       <c r="G5" t="n">
         <v>-0.6674214255595712</v>
@@ -541,19 +541,19 @@
         <v>1.106125530312279</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9489610112883384</v>
+        <v>0.9489610112883384</v>
       </c>
       <c r="C6" t="n">
-        <v>1.394964302721964</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7249361535492151</v>
+        <v>-0.7249361535492151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.90076854960269</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796383038867</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="G6" t="n">
         <v>-0.6218353262550274</v>
